--- a/data/visa_restrictions.xlsx
+++ b/data/visa_restrictions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>Finland</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Moldova</t>
   </si>
   <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
     <t>Samoa</t>
   </si>
   <si>
@@ -606,9 +603,6 @@
     <t>Eq. Guinea</t>
   </si>
   <si>
-    <t>Cxf4te d'Ivoire</t>
-  </si>
-  <si>
     <t>Korea</t>
   </si>
   <si>
@@ -619,6 +613,36 @@
   </si>
   <si>
     <t>Brunei</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Solomon Is.</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>N. Cyprus</t>
+  </si>
+  <si>
+    <t>W. Sahara</t>
+  </si>
+  <si>
+    <t>Falkland Is.</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Somaliland</t>
   </si>
 </sst>
 </file>
@@ -667,8 +691,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -695,7 +731,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -707,6 +743,12 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -718,6 +760,12 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1047,10 +1095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1060,10 +1108,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
         <v>183</v>
-      </c>
-      <c r="B1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1156,7 +1204,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B13">
         <v>172</v>
@@ -1284,7 +1332,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B29">
         <v>162</v>
@@ -1388,7 +1436,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B42">
         <v>150</v>
@@ -1676,7 +1724,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78">
         <v>95</v>
@@ -1732,7 +1780,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="B85">
         <v>87</v>
@@ -1740,7 +1788,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -1748,7 +1796,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B87">
         <v>85</v>
@@ -1756,7 +1804,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88">
         <v>84</v>
@@ -1764,7 +1812,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89">
         <v>83</v>
@@ -1772,7 +1820,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90">
         <v>83</v>
@@ -1780,7 +1828,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91">
         <v>82</v>
@@ -1788,7 +1836,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92">
         <v>82</v>
@@ -1796,7 +1844,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93">
         <v>81</v>
@@ -1804,7 +1852,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94">
         <v>81</v>
@@ -1812,7 +1860,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B95">
         <v>81</v>
@@ -1820,7 +1868,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96">
         <v>79</v>
@@ -1828,7 +1876,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97">
         <v>79</v>
@@ -1836,7 +1884,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B98">
         <v>79</v>
@@ -1844,7 +1892,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B99">
         <v>78</v>
@@ -1852,7 +1900,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B100">
         <v>78</v>
@@ -1860,7 +1908,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101">
         <v>78</v>
@@ -1868,7 +1916,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B102">
         <v>77</v>
@@ -1876,7 +1924,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B103">
         <v>75</v>
@@ -1884,7 +1932,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B104">
         <v>75</v>
@@ -1892,7 +1940,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105">
         <v>74</v>
@@ -1900,7 +1948,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106">
         <v>74</v>
@@ -1908,7 +1956,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107">
         <v>73</v>
@@ -1916,7 +1964,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B108">
         <v>72</v>
@@ -1924,7 +1972,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B109">
         <v>72</v>
@@ -1932,7 +1980,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110">
         <v>71</v>
@@ -1940,7 +1988,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B111">
         <v>71</v>
@@ -1948,7 +1996,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B112">
         <v>70</v>
@@ -1956,7 +2004,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B113">
         <v>70</v>
@@ -1964,7 +2012,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B114">
         <v>69</v>
@@ -1972,7 +2020,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115">
         <v>69</v>
@@ -1980,7 +2028,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116">
         <v>69</v>
@@ -1988,7 +2036,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B117">
         <v>67</v>
@@ -1996,7 +2044,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B118">
         <v>66</v>
@@ -2004,7 +2052,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B119">
         <v>66</v>
@@ -2012,7 +2060,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B120">
         <v>66</v>
@@ -2020,7 +2068,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B121">
         <v>66</v>
@@ -2028,7 +2076,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B122">
         <v>65</v>
@@ -2036,7 +2084,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B123">
         <v>65</v>
@@ -2044,7 +2092,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B124">
         <v>64</v>
@@ -2052,7 +2100,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B125">
         <v>64</v>
@@ -2060,7 +2108,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B126">
         <v>63</v>
@@ -2068,7 +2116,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B127">
         <v>63</v>
@@ -2076,7 +2124,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B128">
         <v>62</v>
@@ -2084,7 +2132,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B129">
         <v>62</v>
@@ -2092,7 +2140,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B130">
         <v>61</v>
@@ -2100,7 +2148,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B131">
         <v>61</v>
@@ -2108,7 +2156,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B132">
         <v>58</v>
@@ -2116,7 +2164,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B133">
         <v>58</v>
@@ -2124,7 +2172,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B134">
         <v>58</v>
@@ -2132,7 +2180,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B135">
         <v>57</v>
@@ -2140,7 +2188,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B136">
         <v>57</v>
@@ -2148,7 +2196,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B137">
         <v>56</v>
@@ -2156,7 +2204,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B138">
         <v>56</v>
@@ -2164,7 +2212,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B139">
         <v>55</v>
@@ -2172,7 +2220,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B140">
         <v>55</v>
@@ -2180,7 +2228,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B141">
         <v>55</v>
@@ -2188,7 +2236,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B142">
         <v>55</v>
@@ -2196,7 +2244,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B143">
         <v>54</v>
@@ -2204,7 +2252,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B144">
         <v>54</v>
@@ -2212,7 +2260,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B145">
         <v>54</v>
@@ -2220,7 +2268,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B146">
         <v>54</v>
@@ -2228,7 +2276,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B147">
         <v>54</v>
@@ -2236,7 +2284,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B148">
         <v>54</v>
@@ -2244,7 +2292,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B149">
         <v>53</v>
@@ -2252,7 +2300,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B150">
         <v>53</v>
@@ -2260,7 +2308,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B151">
         <v>52</v>
@@ -2268,7 +2316,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B152">
         <v>51</v>
@@ -2276,7 +2324,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B153">
         <v>51</v>
@@ -2284,7 +2332,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B154">
         <v>51</v>
@@ -2292,7 +2340,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B155">
         <v>51</v>
@@ -2300,7 +2348,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B156">
         <v>50</v>
@@ -2308,7 +2356,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B157">
         <v>49</v>
@@ -2316,7 +2364,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B158">
         <v>49</v>
@@ -2324,7 +2372,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B159">
         <v>49</v>
@@ -2332,7 +2380,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B160">
         <v>49</v>
@@ -2340,7 +2388,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B161">
         <v>48</v>
@@ -2348,7 +2396,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B162">
         <v>48</v>
@@ -2356,7 +2404,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B163">
         <v>48</v>
@@ -2364,7 +2412,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B164">
         <v>48</v>
@@ -2372,7 +2420,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B165">
         <v>47</v>
@@ -2380,7 +2428,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B166">
         <v>47</v>
@@ -2388,7 +2436,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B167">
         <v>47</v>
@@ -2396,7 +2444,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B168">
         <v>46</v>
@@ -2404,7 +2452,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B169">
         <v>46</v>
@@ -2412,7 +2460,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B170">
         <v>46</v>
@@ -2420,7 +2468,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B171">
         <v>45</v>
@@ -2428,7 +2476,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B172">
         <v>45</v>
@@ -2436,7 +2484,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B173">
         <v>45</v>
@@ -2444,7 +2492,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B174">
         <v>44</v>
@@ -2452,7 +2500,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B175">
         <v>43</v>
@@ -2460,7 +2508,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B176">
         <v>43</v>
@@ -2468,7 +2516,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B177">
         <v>42</v>
@@ -2476,7 +2524,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B178">
         <v>42</v>
@@ -2484,7 +2532,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B179">
         <v>42</v>
@@ -2492,7 +2540,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B180">
         <v>42</v>
@@ -2500,7 +2548,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B181">
         <v>42</v>
@@ -2508,7 +2556,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B182">
         <v>42</v>
@@ -2516,7 +2564,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B183">
         <v>40</v>
@@ -2524,7 +2572,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B184">
         <v>40</v>
@@ -2532,7 +2580,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B185">
         <v>40</v>
@@ -2540,7 +2588,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B186">
         <v>39</v>
@@ -2548,7 +2596,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B187">
         <v>39</v>
@@ -2556,7 +2604,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B188">
         <v>39</v>
@@ -2564,7 +2612,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B189">
         <v>39</v>
@@ -2572,7 +2620,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B190">
         <v>38</v>
@@ -2580,7 +2628,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B191">
         <v>38</v>
@@ -2588,7 +2636,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B192">
         <v>38</v>
@@ -2596,7 +2644,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B193">
         <v>38</v>
@@ -2604,7 +2652,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B194">
         <v>37</v>
@@ -2612,7 +2660,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B195">
         <v>35</v>
@@ -2620,7 +2668,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B196">
         <v>32</v>
@@ -2628,7 +2676,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B197">
         <v>32</v>
@@ -2636,7 +2684,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B198">
         <v>31</v>
@@ -2644,10 +2692,81 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B199">
         <v>28</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <f>B5</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <f>B8</f>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <f>B10</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <f>B35</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <f>B142</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <f>B6</f>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <f>B197</f>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
